--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Slit2-Gpc1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Slit2-Gpc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Gpc1</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.0278127990858216</v>
+        <v>0.07387466666666667</v>
       </c>
       <c r="H2">
-        <v>0.0278127990858216</v>
+        <v>0.221624</v>
       </c>
       <c r="I2">
-        <v>0.009313867001196413</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="J2">
-        <v>0.009313867001196413</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.215800143040077</v>
+        <v>0.311426</v>
       </c>
       <c r="N2">
-        <v>0.215800143040077</v>
+        <v>0.9342779999999999</v>
       </c>
       <c r="O2">
-        <v>0.004929155832123615</v>
+        <v>0.006160792721660773</v>
       </c>
       <c r="P2">
-        <v>0.004929155832123615</v>
+        <v>0.006160792721660772</v>
       </c>
       <c r="Q2">
-        <v>0.006002006021065224</v>
+        <v>0.02300649194133333</v>
       </c>
       <c r="R2">
-        <v>0.006002006021065224</v>
+        <v>0.207058427472</v>
       </c>
       <c r="S2">
-        <v>4.590950184857098E-05</v>
+        <v>0.0001435464652330744</v>
       </c>
       <c r="T2">
-        <v>4.590950184857098E-05</v>
+        <v>0.0001435464652330744</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.0278127990858216</v>
+        <v>0.07387466666666667</v>
       </c>
       <c r="H3">
-        <v>0.0278127990858216</v>
+        <v>0.221624</v>
       </c>
       <c r="I3">
-        <v>0.009313867001196413</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="J3">
-        <v>0.009313867001196413</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.21890783494042</v>
+        <v>6.318962</v>
       </c>
       <c r="N3">
-        <v>6.21890783494042</v>
+        <v>18.956886</v>
       </c>
       <c r="O3">
-        <v>0.1420479402478568</v>
+        <v>0.1250050255856961</v>
       </c>
       <c r="P3">
-        <v>0.1420479402478568</v>
+        <v>0.1250050255856961</v>
       </c>
       <c r="Q3">
-        <v>0.1729652341464397</v>
+        <v>0.4668112114293334</v>
       </c>
       <c r="R3">
-        <v>0.1729652341464397</v>
+        <v>4.201300902864</v>
       </c>
       <c r="S3">
-        <v>0.001323015623262434</v>
+        <v>0.002912616991009479</v>
       </c>
       <c r="T3">
-        <v>0.001323015623262434</v>
+        <v>0.002912616991009479</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.0278127990858216</v>
+        <v>0.07387466666666667</v>
       </c>
       <c r="H4">
-        <v>0.0278127990858216</v>
+        <v>0.221624</v>
       </c>
       <c r="I4">
-        <v>0.009313867001196413</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="J4">
-        <v>0.009313867001196413</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.816075826342838</v>
+        <v>1.464670666666667</v>
       </c>
       <c r="N4">
-        <v>0.816075826342838</v>
+        <v>4.394012</v>
       </c>
       <c r="O4">
-        <v>0.01864023286641591</v>
+        <v>0.02897488450813366</v>
       </c>
       <c r="P4">
-        <v>0.01864023286641591</v>
+        <v>0.02897488450813366</v>
       </c>
       <c r="Q4">
-        <v>0.02269735299686919</v>
+        <v>0.1082020572764445</v>
       </c>
       <c r="R4">
-        <v>0.02269735299686919</v>
+        <v>0.973818515488</v>
       </c>
       <c r="S4">
-        <v>0.000173612649789128</v>
+        <v>0.0006751147846697788</v>
       </c>
       <c r="T4">
-        <v>0.000173612649789128</v>
+        <v>0.0006751147846697788</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.0278127990858216</v>
+        <v>0.07387466666666667</v>
       </c>
       <c r="H5">
-        <v>0.0278127990858216</v>
+        <v>0.221624</v>
       </c>
       <c r="I5">
-        <v>0.009313867001196413</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="J5">
-        <v>0.009313867001196413</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.785572869324936</v>
+        <v>0.8538963333333333</v>
       </c>
       <c r="N5">
-        <v>0.785572869324936</v>
+        <v>2.561689</v>
       </c>
       <c r="O5">
-        <v>0.01794350567076301</v>
+        <v>0.01689222581111667</v>
       </c>
       <c r="P5">
-        <v>0.01794350567076301</v>
+        <v>0.01689222581111667</v>
       </c>
       <c r="Q5">
-        <v>0.02184898038180683</v>
+        <v>0.06308130699288889</v>
       </c>
       <c r="R5">
-        <v>0.02184898038180683</v>
+        <v>0.567731762936</v>
       </c>
       <c r="S5">
-        <v>0.0001671234253527003</v>
+        <v>0.0003935888471915736</v>
       </c>
       <c r="T5">
-        <v>0.0001671234253527003</v>
+        <v>0.0003935888471915736</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0278127990858216</v>
+        <v>0.07387466666666667</v>
       </c>
       <c r="H6">
-        <v>0.0278127990858216</v>
+        <v>0.221624</v>
       </c>
       <c r="I6">
-        <v>0.009313867001196413</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="J6">
-        <v>0.009313867001196413</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.28679137706662</v>
+        <v>2.347788333333333</v>
       </c>
       <c r="N6">
-        <v>2.28679137706662</v>
+        <v>7.043365</v>
       </c>
       <c r="O6">
-        <v>0.05223328814487658</v>
+        <v>0.04644518208498994</v>
       </c>
       <c r="P6">
-        <v>0.05223328814487658</v>
+        <v>0.04644518208498993</v>
       </c>
       <c r="Q6">
-        <v>0.0636020691215432</v>
+        <v>0.1734420805288889</v>
       </c>
       <c r="R6">
-        <v>0.0636020691215432</v>
+        <v>1.56097872476</v>
       </c>
       <c r="S6">
-        <v>0.0004864938988165497</v>
+        <v>0.00108217270351689</v>
       </c>
       <c r="T6">
-        <v>0.0004864938988165497</v>
+        <v>0.00108217270351689</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.0278127990858216</v>
+        <v>0.07387466666666667</v>
       </c>
       <c r="H7">
-        <v>0.0278127990858216</v>
+        <v>0.221624</v>
       </c>
       <c r="I7">
-        <v>0.009313867001196413</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="J7">
-        <v>0.009313867001196413</v>
+        <v>0.02329999915893589</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.4571969799076</v>
+        <v>39.25292033333333</v>
       </c>
       <c r="N7">
-        <v>33.4571969799076</v>
+        <v>117.758761</v>
       </c>
       <c r="O7">
-        <v>0.7642058772379641</v>
+        <v>0.7765218892884028</v>
       </c>
       <c r="P7">
-        <v>0.7642058772379641</v>
+        <v>0.7765218892884028</v>
       </c>
       <c r="Q7">
-        <v>0.9305382975769273</v>
+        <v>2.899796405318222</v>
       </c>
       <c r="R7">
-        <v>0.9305382975769273</v>
+        <v>26.098167647864</v>
       </c>
       <c r="S7">
-        <v>0.007117711902127031</v>
+        <v>0.01809295936731509</v>
       </c>
       <c r="T7">
-        <v>0.007117711902127031</v>
+        <v>0.01809295936731509</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.44618154757366</v>
+        <v>2.538883</v>
       </c>
       <c r="H8">
-        <v>2.44618154757366</v>
+        <v>7.616649</v>
       </c>
       <c r="I8">
-        <v>0.819169962885771</v>
+        <v>0.8007612681564715</v>
       </c>
       <c r="J8">
-        <v>0.819169962885771</v>
+        <v>0.8007612681564716</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.215800143040077</v>
+        <v>0.311426</v>
       </c>
       <c r="N8">
-        <v>0.215800143040077</v>
+        <v>0.9342779999999999</v>
       </c>
       <c r="O8">
-        <v>0.004929155832123615</v>
+        <v>0.006160792721660773</v>
       </c>
       <c r="P8">
-        <v>0.004929155832123615</v>
+        <v>0.006160792721660772</v>
       </c>
       <c r="Q8">
-        <v>0.5278863278683927</v>
+        <v>0.7906741771579999</v>
       </c>
       <c r="R8">
-        <v>0.5278863278683927</v>
+        <v>7.116067594422</v>
       </c>
       <c r="S8">
-        <v>0.004037816400058883</v>
+        <v>0.00493332419264624</v>
       </c>
       <c r="T8">
-        <v>0.004037816400058883</v>
+        <v>0.00493332419264624</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.44618154757366</v>
+        <v>2.538883</v>
       </c>
       <c r="H9">
-        <v>2.44618154757366</v>
+        <v>7.616649</v>
       </c>
       <c r="I9">
-        <v>0.819169962885771</v>
+        <v>0.8007612681564715</v>
       </c>
       <c r="J9">
-        <v>0.819169962885771</v>
+        <v>0.8007612681564716</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.21890783494042</v>
+        <v>6.318962</v>
       </c>
       <c r="N9">
-        <v>6.21890783494042</v>
+        <v>18.956886</v>
       </c>
       <c r="O9">
-        <v>0.1420479402478568</v>
+        <v>0.1250050255856961</v>
       </c>
       <c r="P9">
-        <v>0.1420479402478568</v>
+        <v>0.1250050255856961</v>
       </c>
       <c r="Q9">
-        <v>15.21257759189252</v>
+        <v>16.043105199446</v>
       </c>
       <c r="R9">
-        <v>15.21257759189252</v>
+        <v>144.387946795014</v>
       </c>
       <c r="S9">
-        <v>0.1163614059408371</v>
+        <v>0.1000991828139342</v>
       </c>
       <c r="T9">
-        <v>0.1163614059408371</v>
+        <v>0.1000991828139342</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.44618154757366</v>
+        <v>2.538883</v>
       </c>
       <c r="H10">
-        <v>2.44618154757366</v>
+        <v>7.616649</v>
       </c>
       <c r="I10">
-        <v>0.819169962885771</v>
+        <v>0.8007612681564715</v>
       </c>
       <c r="J10">
-        <v>0.819169962885771</v>
+        <v>0.8007612681564716</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.816075826342838</v>
+        <v>1.464670666666667</v>
       </c>
       <c r="N10">
-        <v>0.816075826342838</v>
+        <v>4.394012</v>
       </c>
       <c r="O10">
-        <v>0.01864023286641591</v>
+        <v>0.02897488450813366</v>
       </c>
       <c r="P10">
-        <v>0.01864023286641591</v>
+        <v>0.02897488450813366</v>
       </c>
       <c r="Q10">
-        <v>1.996269627820777</v>
+        <v>3.718627456198667</v>
       </c>
       <c r="R10">
-        <v>1.996269627820777</v>
+        <v>33.467647105788</v>
       </c>
       <c r="S10">
-        <v>0.01526951886536405</v>
+        <v>0.02320196526342041</v>
       </c>
       <c r="T10">
-        <v>0.01526951886536405</v>
+        <v>0.02320196526342041</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.44618154757366</v>
+        <v>2.538883</v>
       </c>
       <c r="H11">
-        <v>2.44618154757366</v>
+        <v>7.616649</v>
       </c>
       <c r="I11">
-        <v>0.819169962885771</v>
+        <v>0.8007612681564715</v>
       </c>
       <c r="J11">
-        <v>0.819169962885771</v>
+        <v>0.8007612681564716</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.785572869324936</v>
+        <v>0.8538963333333333</v>
       </c>
       <c r="N11">
-        <v>0.785572869324936</v>
+        <v>2.561689</v>
       </c>
       <c r="O11">
-        <v>0.01794350567076301</v>
+        <v>0.01689222581111667</v>
       </c>
       <c r="P11">
-        <v>0.01794350567076301</v>
+        <v>0.01689222581111667</v>
       </c>
       <c r="Q11">
-        <v>1.921653857217152</v>
+        <v>2.167942884462333</v>
       </c>
       <c r="R11">
-        <v>1.921653857217152</v>
+        <v>19.511485960161</v>
       </c>
       <c r="S11">
-        <v>0.01469878087435956</v>
+        <v>0.01352664016249527</v>
       </c>
       <c r="T11">
-        <v>0.01469878087435956</v>
+        <v>0.01352664016249527</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.44618154757366</v>
+        <v>2.538883</v>
       </c>
       <c r="H12">
-        <v>2.44618154757366</v>
+        <v>7.616649</v>
       </c>
       <c r="I12">
-        <v>0.819169962885771</v>
+        <v>0.8007612681564715</v>
       </c>
       <c r="J12">
-        <v>0.819169962885771</v>
+        <v>0.8007612681564716</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.28679137706662</v>
+        <v>2.347788333333333</v>
       </c>
       <c r="N12">
-        <v>2.28679137706662</v>
+        <v>7.043365</v>
       </c>
       <c r="O12">
-        <v>0.05223328814487658</v>
+        <v>0.04644518208498994</v>
       </c>
       <c r="P12">
-        <v>0.05223328814487658</v>
+        <v>0.04644518208498993</v>
       </c>
       <c r="Q12">
-        <v>5.593906869730926</v>
+        <v>5.960759887098333</v>
       </c>
       <c r="R12">
-        <v>5.593906869730926</v>
+        <v>53.646838983885</v>
       </c>
       <c r="S12">
-        <v>0.04278794071104033</v>
+        <v>0.03719150290613478</v>
       </c>
       <c r="T12">
-        <v>0.04278794071104033</v>
+        <v>0.03719150290613478</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.44618154757366</v>
+        <v>2.538883</v>
       </c>
       <c r="H13">
-        <v>2.44618154757366</v>
+        <v>7.616649</v>
       </c>
       <c r="I13">
-        <v>0.819169962885771</v>
+        <v>0.8007612681564715</v>
       </c>
       <c r="J13">
-        <v>0.819169962885771</v>
+        <v>0.8007612681564716</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>33.4571969799076</v>
+        <v>39.25292033333333</v>
       </c>
       <c r="N13">
-        <v>33.4571969799076</v>
+        <v>117.758761</v>
       </c>
       <c r="O13">
-        <v>0.7642058772379641</v>
+        <v>0.7765218892884028</v>
       </c>
       <c r="P13">
-        <v>0.7642058772379641</v>
+        <v>0.7765218892884028</v>
       </c>
       <c r="Q13">
-        <v>81.84237788578716</v>
+        <v>99.65857213465431</v>
       </c>
       <c r="R13">
-        <v>81.84237788578716</v>
+        <v>896.9271492118889</v>
       </c>
       <c r="S13">
-        <v>0.6260145000941111</v>
+        <v>0.6218086528178406</v>
       </c>
       <c r="T13">
-        <v>0.6260145000941111</v>
+        <v>0.6218086528178407</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.5121766049172271</v>
+        <v>2.5E-05</v>
       </c>
       <c r="H14">
-        <v>0.5121766049172271</v>
+        <v>7.499999999999999E-05</v>
       </c>
       <c r="I14">
-        <v>0.1715161701130326</v>
+        <v>7.884976071725948E-06</v>
       </c>
       <c r="J14">
-        <v>0.1715161701130326</v>
+        <v>7.884976071725948E-06</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.215800143040077</v>
+        <v>0.311426</v>
       </c>
       <c r="N14">
-        <v>0.215800143040077</v>
+        <v>0.9342779999999999</v>
       </c>
       <c r="O14">
-        <v>0.004929155832123615</v>
+        <v>0.006160792721660773</v>
       </c>
       <c r="P14">
-        <v>0.004929155832123615</v>
+        <v>0.006160792721660772</v>
       </c>
       <c r="Q14">
-        <v>0.1105277846029186</v>
+        <v>7.785649999999999E-06</v>
       </c>
       <c r="R14">
-        <v>0.1105277846029186</v>
+        <v>7.007084999999999E-05</v>
       </c>
       <c r="S14">
-        <v>0.0008454299302161605</v>
+        <v>4.857770319315857E-08</v>
       </c>
       <c r="T14">
-        <v>0.0008454299302161605</v>
+        <v>4.857770319315857E-08</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.5121766049172271</v>
+        <v>2.5E-05</v>
       </c>
       <c r="H15">
-        <v>0.5121766049172271</v>
+        <v>7.499999999999999E-05</v>
       </c>
       <c r="I15">
-        <v>0.1715161701130326</v>
+        <v>7.884976071725948E-06</v>
       </c>
       <c r="J15">
-        <v>0.1715161701130326</v>
+        <v>7.884976071725948E-06</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.21890783494042</v>
+        <v>6.318962</v>
       </c>
       <c r="N15">
-        <v>6.21890783494042</v>
+        <v>18.956886</v>
       </c>
       <c r="O15">
-        <v>0.1420479402478568</v>
+        <v>0.1250050255856961</v>
       </c>
       <c r="P15">
-        <v>0.1420479402478568</v>
+        <v>0.1250050255856961</v>
       </c>
       <c r="Q15">
-        <v>3.185179101192927</v>
+        <v>0.00015797405</v>
       </c>
       <c r="R15">
-        <v>3.185179101192927</v>
+        <v>0.00142176645</v>
       </c>
       <c r="S15">
-        <v>0.02436351868375729</v>
+        <v>9.856616355887038E-07</v>
       </c>
       <c r="T15">
-        <v>0.02436351868375729</v>
+        <v>9.856616355887038E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.5121766049172271</v>
+        <v>2.5E-05</v>
       </c>
       <c r="H16">
-        <v>0.5121766049172271</v>
+        <v>7.499999999999999E-05</v>
       </c>
       <c r="I16">
-        <v>0.1715161701130326</v>
+        <v>7.884976071725948E-06</v>
       </c>
       <c r="J16">
-        <v>0.1715161701130326</v>
+        <v>7.884976071725948E-06</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.816075826342838</v>
+        <v>1.464670666666667</v>
       </c>
       <c r="N16">
-        <v>0.816075826342838</v>
+        <v>4.394012</v>
       </c>
       <c r="O16">
-        <v>0.01864023286641591</v>
+        <v>0.02897488450813366</v>
       </c>
       <c r="P16">
-        <v>0.01864023286641591</v>
+        <v>0.02897488450813366</v>
       </c>
       <c r="Q16">
-        <v>0.4179749460912954</v>
+        <v>3.661676666666666E-05</v>
       </c>
       <c r="R16">
-        <v>0.4179749460912954</v>
+        <v>0.0003295509</v>
       </c>
       <c r="S16">
-        <v>0.003197101351262732</v>
+        <v>2.284662710276568E-07</v>
       </c>
       <c r="T16">
-        <v>0.003197101351262732</v>
+        <v>2.284662710276567E-07</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
@@ -1470,49 +1470,49 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.5121766049172271</v>
+        <v>2.5E-05</v>
       </c>
       <c r="H17">
-        <v>0.5121766049172271</v>
+        <v>7.499999999999999E-05</v>
       </c>
       <c r="I17">
-        <v>0.1715161701130326</v>
+        <v>7.884976071725948E-06</v>
       </c>
       <c r="J17">
-        <v>0.1715161701130326</v>
+        <v>7.884976071725948E-06</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.785572869324936</v>
+        <v>0.8538963333333333</v>
       </c>
       <c r="N17">
-        <v>0.785572869324936</v>
+        <v>2.561689</v>
       </c>
       <c r="O17">
-        <v>0.01794350567076301</v>
+        <v>0.01689222581111667</v>
       </c>
       <c r="P17">
-        <v>0.01794350567076301</v>
+        <v>0.01689222581111667</v>
       </c>
       <c r="Q17">
-        <v>0.4023520451259301</v>
+        <v>2.134740833333333E-05</v>
       </c>
       <c r="R17">
-        <v>0.4023520451259301</v>
+        <v>0.000192126675</v>
       </c>
       <c r="S17">
-        <v>0.003077601371050753</v>
+        <v>1.331947963188464E-07</v>
       </c>
       <c r="T17">
-        <v>0.003077601371050753</v>
+        <v>1.331947963188464E-07</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
@@ -1532,49 +1532,49 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.5121766049172271</v>
+        <v>2.5E-05</v>
       </c>
       <c r="H18">
-        <v>0.5121766049172271</v>
+        <v>7.499999999999999E-05</v>
       </c>
       <c r="I18">
-        <v>0.1715161701130326</v>
+        <v>7.884976071725948E-06</v>
       </c>
       <c r="J18">
-        <v>0.1715161701130326</v>
+        <v>7.884976071725948E-06</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.28679137706662</v>
+        <v>2.347788333333333</v>
       </c>
       <c r="N18">
-        <v>2.28679137706662</v>
+        <v>7.043365</v>
       </c>
       <c r="O18">
-        <v>0.05223328814487658</v>
+        <v>0.04644518208498994</v>
       </c>
       <c r="P18">
-        <v>0.05223328814487658</v>
+        <v>0.04644518208498993</v>
       </c>
       <c r="Q18">
-        <v>1.171241043659972</v>
+        <v>5.869470833333333E-05</v>
       </c>
       <c r="R18">
-        <v>1.171241043659972</v>
+        <v>0.0005282523749999999</v>
       </c>
       <c r="S18">
-        <v>0.008958853535019698</v>
+        <v>3.662191493871003E-07</v>
       </c>
       <c r="T18">
-        <v>0.008958853535019698</v>
+        <v>3.662191493871003E-07</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>2.5E-05</v>
+      </c>
+      <c r="H19">
+        <v>7.499999999999999E-05</v>
+      </c>
+      <c r="I19">
+        <v>7.884976071725948E-06</v>
+      </c>
+      <c r="J19">
+        <v>7.884976071725948E-06</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>39.25292033333333</v>
+      </c>
+      <c r="N19">
+        <v>117.758761</v>
+      </c>
+      <c r="O19">
+        <v>0.7765218892884028</v>
+      </c>
+      <c r="P19">
+        <v>0.7765218892884028</v>
+      </c>
+      <c r="Q19">
+        <v>0.000981323008333333</v>
+      </c>
+      <c r="R19">
+        <v>0.008831907074999999</v>
+      </c>
+      <c r="S19">
+        <v>6.122856516210482E-06</v>
+      </c>
+      <c r="T19">
+        <v>6.122856516210482E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.557804</v>
+      </c>
+      <c r="H20">
+        <v>1.673412</v>
+      </c>
+      <c r="I20">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="J20">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.311426</v>
+      </c>
+      <c r="N20">
+        <v>0.9342779999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.006160792721660773</v>
+      </c>
+      <c r="P20">
+        <v>0.006160792721660772</v>
+      </c>
+      <c r="Q20">
+        <v>0.173714668504</v>
+      </c>
+      <c r="R20">
+        <v>1.563432016536</v>
+      </c>
+      <c r="S20">
+        <v>0.001083873486078265</v>
+      </c>
+      <c r="T20">
+        <v>0.001083873486078265</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.557804</v>
+      </c>
+      <c r="H21">
+        <v>1.673412</v>
+      </c>
+      <c r="I21">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="J21">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>6.318962</v>
+      </c>
+      <c r="N21">
+        <v>18.956886</v>
+      </c>
+      <c r="O21">
+        <v>0.1250050255856961</v>
+      </c>
+      <c r="P21">
+        <v>0.1250050255856961</v>
+      </c>
+      <c r="Q21">
+        <v>3.524742279448</v>
+      </c>
+      <c r="R21">
+        <v>31.722680515032</v>
+      </c>
+      <c r="S21">
+        <v>0.02199224011911685</v>
+      </c>
+      <c r="T21">
+        <v>0.02199224011911685</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.5121766049172271</v>
-      </c>
-      <c r="H19">
-        <v>0.5121766049172271</v>
-      </c>
-      <c r="I19">
-        <v>0.1715161701130326</v>
-      </c>
-      <c r="J19">
-        <v>0.1715161701130326</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>33.4571969799076</v>
-      </c>
-      <c r="N19">
-        <v>33.4571969799076</v>
-      </c>
-      <c r="O19">
-        <v>0.7642058772379641</v>
-      </c>
-      <c r="P19">
-        <v>0.7642058772379641</v>
-      </c>
-      <c r="Q19">
-        <v>17.13599355921598</v>
-      </c>
-      <c r="R19">
-        <v>17.13599355921598</v>
-      </c>
-      <c r="S19">
-        <v>0.1310736652417259</v>
-      </c>
-      <c r="T19">
-        <v>0.1310736652417259</v>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.557804</v>
+      </c>
+      <c r="H22">
+        <v>1.673412</v>
+      </c>
+      <c r="I22">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="J22">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.464670666666667</v>
+      </c>
+      <c r="N22">
+        <v>4.394012</v>
+      </c>
+      <c r="O22">
+        <v>0.02897488450813366</v>
+      </c>
+      <c r="P22">
+        <v>0.02897488450813366</v>
+      </c>
+      <c r="Q22">
+        <v>0.8169991565493333</v>
+      </c>
+      <c r="R22">
+        <v>7.352992408944</v>
+      </c>
+      <c r="S22">
+        <v>0.005097575993772442</v>
+      </c>
+      <c r="T22">
+        <v>0.005097575993772442</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.557804</v>
+      </c>
+      <c r="H23">
+        <v>1.673412</v>
+      </c>
+      <c r="I23">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="J23">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.8538963333333333</v>
+      </c>
+      <c r="N23">
+        <v>2.561689</v>
+      </c>
+      <c r="O23">
+        <v>0.01689222581111667</v>
+      </c>
+      <c r="P23">
+        <v>0.01689222581111667</v>
+      </c>
+      <c r="Q23">
+        <v>0.4763067903186666</v>
+      </c>
+      <c r="R23">
+        <v>4.286761112868</v>
+      </c>
+      <c r="S23">
+        <v>0.002971863606633512</v>
+      </c>
+      <c r="T23">
+        <v>0.002971863606633512</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.557804</v>
+      </c>
+      <c r="H24">
+        <v>1.673412</v>
+      </c>
+      <c r="I24">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="J24">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.347788333333333</v>
+      </c>
+      <c r="N24">
+        <v>7.043365</v>
+      </c>
+      <c r="O24">
+        <v>0.04644518208498994</v>
+      </c>
+      <c r="P24">
+        <v>0.04644518208498993</v>
+      </c>
+      <c r="Q24">
+        <v>1.309605723486667</v>
+      </c>
+      <c r="R24">
+        <v>11.78645151138</v>
+      </c>
+      <c r="S24">
+        <v>0.008171140256188885</v>
+      </c>
+      <c r="T24">
+        <v>0.008171140256188883</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.557804</v>
+      </c>
+      <c r="H25">
+        <v>1.673412</v>
+      </c>
+      <c r="I25">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="J25">
+        <v>0.1759308477085208</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>39.25292033333333</v>
+      </c>
+      <c r="N25">
+        <v>117.758761</v>
+      </c>
+      <c r="O25">
+        <v>0.7765218892884028</v>
+      </c>
+      <c r="P25">
+        <v>0.7765218892884028</v>
+      </c>
+      <c r="Q25">
+        <v>21.89543597361466</v>
+      </c>
+      <c r="R25">
+        <v>197.058923762532</v>
+      </c>
+      <c r="S25">
+        <v>0.1366141542467309</v>
+      </c>
+      <c r="T25">
+        <v>0.1366141542467309</v>
       </c>
     </row>
   </sheetData>
